--- a/data/HistFlowMassConc.xlsx
+++ b/data/HistFlowMassConc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfelletter\Documents\RW-RDF-Process-Plot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F009CDB2-5D8D-44AE-B0A6-50DCD337E29E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39271E23-5172-4694-A51C-F15677670F88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{59F0FA27-635D-4EC0-813F-B52CA9E5C405}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59F0FA27-635D-4EC0-813F-B52CA9E5C405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2920,6 +2920,9 @@
           <cell r="Z80">
             <v>544.7472138055241</v>
           </cell>
+          <cell r="AA80">
+            <v>671.19313774651141</v>
+          </cell>
         </row>
         <row r="81">
           <cell r="C81">
@@ -2979,6 +2982,9 @@
           <cell r="Z81">
             <v>549.1329792344934</v>
           </cell>
+          <cell r="AA81">
+            <v>680.25156287901359</v>
+          </cell>
         </row>
         <row r="82">
           <cell r="C82">
@@ -3038,6 +3044,9 @@
           <cell r="Z82">
             <v>568.71923518049698</v>
           </cell>
+          <cell r="AA82">
+            <v>690.4263347031615</v>
+          </cell>
         </row>
         <row r="83">
           <cell r="C83">
@@ -3097,6 +3106,9 @@
           <cell r="Z83">
             <v>591.57228404557634</v>
           </cell>
+          <cell r="AA83">
+            <v>694.98123184892495</v>
+          </cell>
         </row>
         <row r="84">
           <cell r="C84">
@@ -3156,6 +3168,9 @@
           <cell r="Z84">
             <v>620.85813781225329</v>
           </cell>
+          <cell r="AA84">
+            <v>726.84602982799504</v>
+          </cell>
         </row>
         <row r="85">
           <cell r="C85">
@@ -3215,6 +3230,9 @@
           <cell r="Z85">
             <v>668.24957652289129</v>
           </cell>
+          <cell r="AA85">
+            <v>709.97476470411902</v>
+          </cell>
         </row>
         <row r="86">
           <cell r="C86">
@@ -3274,6 +3292,9 @@
           <cell r="Z86">
             <v>673.32937400594403</v>
           </cell>
+          <cell r="AA86">
+            <v>712.30402343455967</v>
+          </cell>
         </row>
         <row r="87">
           <cell r="C87">
@@ -3333,6 +3354,9 @@
           <cell r="Z87">
             <v>657.16873900137807</v>
           </cell>
+          <cell r="AA87">
+            <v>715.18141426882767</v>
+          </cell>
         </row>
         <row r="88">
           <cell r="C88">
@@ -3392,6 +3416,9 @@
           <cell r="Z88">
             <v>646.08729528472929</v>
           </cell>
+          <cell r="AA88">
+            <v>717.27525247414792</v>
+          </cell>
         </row>
         <row r="89">
           <cell r="C89">
@@ -3451,6 +3478,9 @@
           <cell r="Z89">
             <v>623.73107015914445</v>
           </cell>
+          <cell r="AA89">
+            <v>717.25653008039399</v>
+          </cell>
         </row>
         <row r="90">
           <cell r="C90">
@@ -3510,6 +3540,9 @@
           <cell r="Z90">
             <v>595.85995956850559</v>
           </cell>
+          <cell r="AA90">
+            <v>689.81034411388953</v>
+          </cell>
         </row>
         <row r="91">
           <cell r="C91">
@@ -3569,6 +3602,9 @@
           <cell r="Z91">
             <v>590.74830967188518</v>
           </cell>
+          <cell r="AA91">
+            <v>679.83973343689911</v>
+          </cell>
         </row>
         <row r="92">
           <cell r="C92">
@@ -3628,6 +3664,9 @@
           <cell r="Z92">
             <v>570.55441364629928</v>
           </cell>
+          <cell r="AA92">
+            <v>674.1344896248529</v>
+          </cell>
         </row>
         <row r="93">
           <cell r="C93">
@@ -3687,6 +3726,9 @@
           <cell r="Z93">
             <v>567.49022196805129</v>
           </cell>
+          <cell r="AA93">
+            <v>677.25656761025016</v>
+          </cell>
         </row>
         <row r="94">
           <cell r="C94">
@@ -3746,6 +3788,9 @@
           <cell r="Z94">
             <v>598.31538033036065</v>
           </cell>
+          <cell r="AA94">
+            <v>694.97391634452947</v>
+          </cell>
         </row>
         <row r="95">
           <cell r="C95">
@@ -3805,6 +3850,9 @@
           <cell r="Z95">
             <v>634.43779939780177</v>
           </cell>
+          <cell r="AA95">
+            <v>726.39837094676898</v>
+          </cell>
         </row>
         <row r="96">
           <cell r="C96">
@@ -3864,6 +3912,9 @@
           <cell r="Z96">
             <v>624.48908190894372</v>
           </cell>
+          <cell r="AA96">
+            <v>714.58273355927281</v>
+          </cell>
         </row>
         <row r="97">
           <cell r="C97">
@@ -3923,6 +3974,9 @@
           <cell r="Z97">
             <v>614.92929793877101</v>
           </cell>
+          <cell r="AA97">
+            <v>701.97873564980023</v>
+          </cell>
         </row>
         <row r="98">
           <cell r="C98">
@@ -3982,6 +4036,9 @@
           <cell r="Z98">
             <v>591.12612264992663</v>
           </cell>
+          <cell r="AA98">
+            <v>677.33671544221863</v>
+          </cell>
         </row>
         <row r="99">
           <cell r="C99">
@@ -4040,6 +4097,9 @@
           </cell>
           <cell r="Z99">
             <v>575.67709005536449</v>
+          </cell>
+          <cell r="AA99">
+            <v>653.99896680667268</v>
           </cell>
         </row>
       </sheetData>
@@ -4348,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CB55C4-5E51-4C62-9A91-E4779496D8F0}">
   <dimension ref="A1:BJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BJ2" sqref="BJ2:BJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4783,8 +4843,12 @@
         <v>541.21536975792276</v>
       </c>
       <c r="BI2" s="2">
-        <f>[1]annualCYConc!$Z80</f>
+        <f>[1]annualCYConc!Z80</f>
         <v>544.7472138055241</v>
+      </c>
+      <c r="BJ2" s="2">
+        <f>[1]annualCYConc!AA80</f>
+        <v>671.19313774651141</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
@@ -5031,6 +5095,10 @@
         <f>[1]annualCYConc!$Z81</f>
         <v>549.1329792344934</v>
       </c>
+      <c r="BJ3" s="2">
+        <f>[1]annualCYConc!AA81</f>
+        <v>680.25156287901359</v>
+      </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -5276,6 +5344,10 @@
         <f>[1]annualCYConc!$Z82</f>
         <v>568.71923518049698</v>
       </c>
+      <c r="BJ4" s="2">
+        <f>[1]annualCYConc!AA82</f>
+        <v>690.4263347031615</v>
+      </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -5521,6 +5593,10 @@
         <f>[1]annualCYConc!$Z83</f>
         <v>591.57228404557634</v>
       </c>
+      <c r="BJ5" s="2">
+        <f>[1]annualCYConc!AA83</f>
+        <v>694.98123184892495</v>
+      </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -5766,6 +5842,10 @@
         <f>[1]annualCYConc!$Z84</f>
         <v>620.85813781225329</v>
       </c>
+      <c r="BJ6" s="2">
+        <f>[1]annualCYConc!AA84</f>
+        <v>726.84602982799504</v>
+      </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -6011,6 +6091,10 @@
         <f>[1]annualCYConc!$Z85</f>
         <v>668.24957652289129</v>
       </c>
+      <c r="BJ7" s="2">
+        <f>[1]annualCYConc!AA85</f>
+        <v>709.97476470411902</v>
+      </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -6256,6 +6340,10 @@
         <f>[1]annualCYConc!$Z86</f>
         <v>673.32937400594403</v>
       </c>
+      <c r="BJ8" s="2">
+        <f>[1]annualCYConc!AA86</f>
+        <v>712.30402343455967</v>
+      </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -6501,6 +6589,10 @@
         <f>[1]annualCYConc!$Z87</f>
         <v>657.16873900137807</v>
       </c>
+      <c r="BJ9" s="2">
+        <f>[1]annualCYConc!AA87</f>
+        <v>715.18141426882767</v>
+      </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -6746,6 +6838,10 @@
         <f>[1]annualCYConc!$Z88</f>
         <v>646.08729528472929</v>
       </c>
+      <c r="BJ10" s="2">
+        <f>[1]annualCYConc!AA88</f>
+        <v>717.27525247414792</v>
+      </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -6991,6 +7087,10 @@
         <f>[1]annualCYConc!$Z89</f>
         <v>623.73107015914445</v>
       </c>
+      <c r="BJ11" s="2">
+        <f>[1]annualCYConc!AA89</f>
+        <v>717.25653008039399</v>
+      </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -7236,6 +7336,10 @@
         <f>[1]annualCYConc!$Z90</f>
         <v>595.85995956850559</v>
       </c>
+      <c r="BJ12" s="2">
+        <f>[1]annualCYConc!AA90</f>
+        <v>689.81034411388953</v>
+      </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7481,6 +7585,10 @@
         <f>[1]annualCYConc!$Z91</f>
         <v>590.74830967188518</v>
       </c>
+      <c r="BJ13" s="2">
+        <f>[1]annualCYConc!AA91</f>
+        <v>679.83973343689911</v>
+      </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -7726,6 +7834,10 @@
         <f>[1]annualCYConc!$Z92</f>
         <v>570.55441364629928</v>
       </c>
+      <c r="BJ14" s="2">
+        <f>[1]annualCYConc!AA92</f>
+        <v>674.1344896248529</v>
+      </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7971,6 +8083,10 @@
         <f>[1]annualCYConc!$Z93</f>
         <v>567.49022196805129</v>
       </c>
+      <c r="BJ15" s="2">
+        <f>[1]annualCYConc!AA93</f>
+        <v>677.25656761025016</v>
+      </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -8216,8 +8332,12 @@
         <f>[1]annualCYConc!$Z94</f>
         <v>598.31538033036065</v>
       </c>
+      <c r="BJ16" s="2">
+        <f>[1]annualCYConc!AA94</f>
+        <v>694.97391634452947</v>
+      </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>[1]annualCYFlow!A95</f>
         <v>2015</v>
@@ -8461,8 +8581,12 @@
         <f>[1]annualCYConc!$Z95</f>
         <v>634.43779939780177</v>
       </c>
+      <c r="BJ17" s="2">
+        <f>[1]annualCYConc!AA95</f>
+        <v>726.39837094676898</v>
+      </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>[1]annualCYFlow!A96</f>
         <v>2016</v>
@@ -8706,8 +8830,12 @@
         <f>[1]annualCYConc!$Z96</f>
         <v>624.48908190894372</v>
       </c>
+      <c r="BJ18" s="2">
+        <f>[1]annualCYConc!AA96</f>
+        <v>714.58273355927281</v>
+      </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>[1]annualCYFlow!A97</f>
         <v>2017</v>
@@ -8951,8 +9079,12 @@
         <f>[1]annualCYConc!$Z97</f>
         <v>614.92929793877101</v>
       </c>
+      <c r="BJ19" s="2">
+        <f>[1]annualCYConc!AA97</f>
+        <v>701.97873564980023</v>
+      </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>[1]annualCYFlow!A98</f>
         <v>2018</v>
@@ -9196,8 +9328,12 @@
         <f>[1]annualCYConc!$Z98</f>
         <v>591.12612264992663</v>
       </c>
+      <c r="BJ20" s="2">
+        <f>[1]annualCYConc!AA98</f>
+        <v>677.33671544221863</v>
+      </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>[1]annualCYFlow!A99</f>
         <v>2019</v>
@@ -9440,6 +9576,10 @@
       <c r="BI21" s="2">
         <f>[1]annualCYConc!$Z99</f>
         <v>575.67709005536449</v>
+      </c>
+      <c r="BJ21" s="2">
+        <f>[1]annualCYConc!AA99</f>
+        <v>653.99896680667268</v>
       </c>
     </row>
   </sheetData>
